--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_19_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_19_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2980906.386071381</v>
+        <v>2970681.749816165</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11583143.56754067</v>
+        <v>10907410.15957845</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2120974.48405216</v>
+        <v>1555926.377790771</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7881158.357128884</v>
+        <v>8115651.066093364</v>
       </c>
     </row>
     <row r="11">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.758705044888</v>
+        <v>237.403751315303</v>
       </c>
       <c r="C11" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>180.361595691313</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1536,19 +1536,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F13" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G13" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572872</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1615,7 +1615,7 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
         <v>359.9009091231189</v>
@@ -1624,7 +1624,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.2126251695833</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
@@ -1666,13 +1666,13 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>250.0428590791923</v>
+        <v>182.9540363555003</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
         <v>339.262802037461</v>
@@ -1770,13 +1770,13 @@
         <v>120.2716844800353</v>
       </c>
       <c r="D16" t="n">
-        <v>101.6403363996202</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F16" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G16" t="n">
         <v>119.0506716404357</v>
@@ -1785,7 +1785,7 @@
         <v>97.77987829572824</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>41.95701605145477</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128492</v>
       </c>
       <c r="T16" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U16" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V16" t="n">
         <v>205.1625067052354</v>
@@ -1846,7 +1846,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C17" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>307.7079050020904</v>
@@ -1861,7 +1861,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H17" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21262516958332</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U17" t="n">
         <v>204.0200353403094</v>
@@ -1906,10 +1906,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>158.2620444867896</v>
       </c>
       <c r="X17" t="n">
-        <v>72.03045914655074</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y17" t="n">
         <v>339.262802037461</v>
@@ -2010,19 +2010,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F19" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G19" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H19" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F20" t="n">
         <v>359.9009091231189</v>
@@ -2098,7 +2098,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H20" t="n">
-        <v>153.430812540765</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958332</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>302.2658320988205</v>
+        <v>296.2842774481088</v>
       </c>
       <c r="X20" t="n">
         <v>322.7559640598765</v>
@@ -2247,19 +2247,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F22" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G22" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H22" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S22" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T22" t="n">
         <v>172.5738126575766</v>
@@ -2320,19 +2320,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C23" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D23" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E23" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F23" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G23" t="n">
-        <v>197.2952558794574</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H23" t="n">
         <v>247.6326277687279</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T23" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210282</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V23" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W23" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X23" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="24">
@@ -2478,25 +2478,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C25" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D25" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797657</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F25" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G25" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572818</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S25" t="n">
         <v>142.7938887128493</v>
@@ -2532,7 +2532,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U25" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V25" t="n">
         <v>205.1625067052354</v>
@@ -2541,7 +2541,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X25" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y25" t="n">
         <v>171.6095167335022</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
         <v>318.2977551524149</v>
@@ -2569,10 +2569,10 @@
         <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>146.7139570676041</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687284</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
         <v>204.0200353403094</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2733,7 +2733,7 @@
         <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124561</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.9570160514543</v>
+        <v>41.95701605145475</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2769,7 +2769,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870209</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
         <v>205.1625067052354</v>
@@ -2794,22 +2794,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,16 +2848,16 @@
         <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
-        <v>49.42639757795428</v>
+        <v>204.0200353403097</v>
       </c>
       <c r="V29" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,25 +2952,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433937</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572821</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3006,7 +3006,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
         <v>205.1625067052354</v>
@@ -3031,22 +3031,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H32" t="n">
-        <v>49.42639757795365</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,16 +3085,16 @@
         <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>204.0200353403097</v>
       </c>
       <c r="V32" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,25 +3189,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572821</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C35" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E35" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H35" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958326</v>
+        <v>15.507155596567</v>
       </c>
       <c r="T35" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>256.2884035736803</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y35" t="n">
         <v>339.262802037461</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,25 +3426,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572821</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128492</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T37" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
-        <v>239.23670158702</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
         <v>205.1625067052354</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C38" t="n">
-        <v>46.08353999181023</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E38" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H38" t="n">
-        <v>247.632627768728</v>
+        <v>241.6510731180161</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958332</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>204.0200353403095</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y38" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797666</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433873</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572827</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I40" t="n">
-        <v>49.3772837912456</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145484</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3757,7 +3757,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>201.6622187863182</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>270.6845954703669</v>
       </c>
     </row>
     <row r="42">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>4.490376835980365</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>101.1471539705509</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3994,10 +3994,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>58.92805047991938</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>23.79925355567368</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744755</v>
       </c>
       <c r="T46" t="n">
-        <v>186.0466578661063</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1301.367519464211</v>
+        <v>1400.715957574904</v>
       </c>
       <c r="C11" t="n">
-        <v>979.8546354718731</v>
+        <v>1079.203073582566</v>
       </c>
       <c r="D11" t="n">
-        <v>979.8546354718731</v>
+        <v>768.3870079238886</v>
       </c>
       <c r="E11" t="n">
-        <v>797.6712054806478</v>
+        <v>430.0483882737176</v>
       </c>
       <c r="F11" t="n">
-        <v>434.1349336391136</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912088</v>
@@ -5053,40 +5053,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.764786084338</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416633</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U11" t="n">
-        <v>2898.155827638543</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V11" t="n">
-        <v>2614.542573243046</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W11" t="n">
-        <v>2309.223550921005</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X11" t="n">
-        <v>1983.207425607998</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y11" t="n">
-        <v>1640.51772658026</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
@@ -5153,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052949</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254612</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611989</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E13" t="n">
-        <v>434.849232726879</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770419</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998342</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H13" t="n">
         <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5244,7 +5244,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874612</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1680.134122574823</v>
+        <v>1768.338774781834</v>
       </c>
       <c r="C14" t="n">
-        <v>1358.621238582484</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="D14" t="n">
-        <v>1047.805172923807</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E14" t="n">
-        <v>1047.805172923807</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="F14" t="n">
-        <v>684.2689010822731</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G14" t="n">
-        <v>316.6460838753429</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H14" t="n">
         <v>66.5121164321834</v>
@@ -5281,7 +5281,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5305,25 +5305,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.764786084339</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416634</v>
+        <v>3167.077706941465</v>
       </c>
       <c r="U14" t="n">
-        <v>2898.155827638544</v>
+        <v>2960.996863163375</v>
       </c>
       <c r="V14" t="n">
-        <v>2614.542573243046</v>
+        <v>2960.996863163375</v>
       </c>
       <c r="W14" t="n">
-        <v>2361.97402871861</v>
+        <v>2776.194806238627</v>
       </c>
       <c r="X14" t="n">
-        <v>2361.97402871861</v>
+        <v>2450.178680925621</v>
       </c>
       <c r="Y14" t="n">
-        <v>2019.284329690871</v>
+        <v>2107.488981897883</v>
       </c>
     </row>
     <row r="15">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052949</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254612</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G16" t="n">
         <v>215.1557144998337</v>
@@ -5442,7 +5442,7 @@
         <v>408.6327023328086</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5481,7 +5481,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874612</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2018.472742224994</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="C17" t="n">
-        <v>1696.959858232656</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="D17" t="n">
-        <v>1386.143792573978</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E17" t="n">
-        <v>1047.805172923807</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="F17" t="n">
-        <v>684.2689010822731</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G17" t="n">
-        <v>316.6460838753429</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H17" t="n">
         <v>66.5121164321834</v>
@@ -5545,22 +5545,22 @@
         <v>3262.764786084339</v>
       </c>
       <c r="T17" t="n">
-        <v>3262.764786084339</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U17" t="n">
-        <v>3056.683942306248</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V17" t="n">
-        <v>2773.070687910751</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="W17" t="n">
-        <v>2773.070687910751</v>
+        <v>2454.681922246289</v>
       </c>
       <c r="X17" t="n">
-        <v>2700.312648368781</v>
+        <v>2128.665796933283</v>
       </c>
       <c r="Y17" t="n">
-        <v>2357.622949341042</v>
+        <v>1785.976097905544</v>
       </c>
     </row>
     <row r="18">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D19" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E19" t="n">
         <v>434.8492327268785</v>
       </c>
       <c r="F19" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G19" t="n">
         <v>215.1557144998337</v>
@@ -5673,13 +5673,13 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
-        <v>158.1401341315258</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K19" t="n">
-        <v>408.6327023328088</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L19" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M19" t="n">
         <v>1162.360316885667</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1584.980773859709</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C20" t="n">
-        <v>1263.467889867371</v>
+        <v>1696.959858232656</v>
       </c>
       <c r="D20" t="n">
-        <v>952.6518242086934</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E20" t="n">
-        <v>952.6518242086934</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F20" t="n">
-        <v>589.1155523671591</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G20" t="n">
-        <v>221.4927351602289</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H20" t="n">
         <v>66.5121164321834</v>
@@ -5752,10 +5752,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5779,25 +5779,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3262.764786084339</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T20" t="n">
-        <v>3104.236671416634</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U20" t="n">
-        <v>2898.155827638544</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V20" t="n">
-        <v>2898.155827638544</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W20" t="n">
-        <v>2592.836805316503</v>
+        <v>3026.328773681787</v>
       </c>
       <c r="X20" t="n">
-        <v>2266.820680003496</v>
+        <v>2700.312648368781</v>
       </c>
       <c r="Y20" t="n">
-        <v>1924.130980975757</v>
+        <v>2357.622949341042</v>
       </c>
     </row>
     <row r="21">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.4662498052945</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9796998254609</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D22" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E22" t="n">
         <v>434.8492327268785</v>
       </c>
       <c r="F22" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G22" t="n">
         <v>215.1557144998337</v>
@@ -5931,13 +5931,13 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q22" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R22" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T22" t="n">
         <v>1938.403572105846</v>
@@ -5955,7 +5955,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y22" t="n">
-        <v>893.665081687461</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1850.138062270041</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C23" t="n">
-        <v>1528.625178277702</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D23" t="n">
-        <v>1217.809112619025</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E23" t="n">
-        <v>879.4704929688544</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F23" t="n">
-        <v>515.9342211273201</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G23" t="n">
-        <v>316.6460838753429</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H23" t="n">
-        <v>66.5121164321834</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810551</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>3182.560655874483</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3577.335022231661</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S23" t="n">
-        <v>3262.764786084339</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T23" t="n">
-        <v>3104.236671416634</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U23" t="n">
-        <v>3104.236671416634</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V23" t="n">
-        <v>2820.623417021136</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W23" t="n">
-        <v>2515.304394699096</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X23" t="n">
-        <v>2189.288269386089</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y23" t="n">
-        <v>2189.288269386089</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031478</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M24" t="n">
-        <v>1212.428070438129</v>
+        <v>1227.062870902635</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992584</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410638</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533341</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125856</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619336</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297192</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2029.395255896113</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199865</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471663</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>759.4662498052941</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C25" t="n">
-        <v>637.9796998254604</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D25" t="n">
-        <v>535.3126933611981</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E25" t="n">
-        <v>434.8492327268783</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F25" t="n">
-        <v>335.4089181770413</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G25" t="n">
-        <v>215.1557144998336</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H25" t="n">
-        <v>116.3881606657647</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J25" t="n">
-        <v>158.1401341315256</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K25" t="n">
-        <v>408.6327023328086</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L25" t="n">
-        <v>771.6978860337113</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M25" t="n">
-        <v>1162.360316885667</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N25" t="n">
-        <v>1550.274078843938</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O25" t="n">
-        <v>1896.109063016758</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P25" t="n">
-        <v>2175.221948702824</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q25" t="n">
-        <v>2299.337630107745</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R25" t="n">
-        <v>2256.956805813346</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.720554588246</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T25" t="n">
-        <v>1938.403572105846</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U25" t="n">
-        <v>1696.750338179562</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V25" t="n">
-        <v>1489.515482921749</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W25" t="n">
-        <v>1247.547945832861</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X25" t="n">
-        <v>1067.008027882917</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y25" t="n">
-        <v>893.6650816874604</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1799.045841247967</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1477.532957255628</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1166.716891596951</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>828.3782719467802</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>464.842000105246</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G26" t="n">
-        <v>316.6460838753429</v>
+        <v>331.2808843398491</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912092</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810557</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3518.923563871311</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3977.401766380299</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3262.764786084339</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3262.764786084339</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3056.683942306249</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>2773.070687910752</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
-        <v>2467.751665588711</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2141.735540275705</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>1799.045841247967</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811082</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999812</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D27" t="n">
-        <v>618.15641553873</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332745</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601595</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927781</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064576</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228006</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031476</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L27" t="n">
-        <v>765.151745215813</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M27" t="n">
-        <v>1212.428070438129</v>
+        <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992583</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410638</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886741</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.053542533341</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125856</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619336</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T27" t="n">
-        <v>2242.828302297192</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2029.395255896113</v>
       </c>
       <c r="V27" t="n">
-        <v>1779.608347199865</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W27" t="n">
-        <v>1525.370990471663</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>759.466249805294</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C28" t="n">
-        <v>637.9796998254603</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D28" t="n">
-        <v>535.3126933611979</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E28" t="n">
-        <v>434.8492327268782</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F28" t="n">
-        <v>335.4089181770412</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>215.1557144998336</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H28" t="n">
-        <v>116.3881606657647</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>158.1401341315257</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>408.6327023328087</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
-        <v>771.6978860337114</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
-        <v>1162.360316885667</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
-        <v>1550.274078843938</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O28" t="n">
-        <v>1896.109063016758</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2175.221948702824</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2299.337630107745</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>2256.956805813347</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.720554588247</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1938.403572105846</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
-        <v>1696.750338179562</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1489.515482921749</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1247.547945832861</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
-        <v>1067.008027882917</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>893.6650816874603</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1457.522709123157</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1136.009825130819</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1136.009825130819</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>797.6712054806478</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>434.1349336391136</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218342</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912096</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810559</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3518.923563871311</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3977.401766380299</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3262.764786084339</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3104.236671416634</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3054.311017297488</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>2770.697762901991</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
-        <v>2465.37874057995</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2139.362615266944</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>1796.672916239206</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031478</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
-        <v>765.151745215813</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
-        <v>1212.428070438129</v>
+        <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992583</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410638</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.41198488674</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.05354253334</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R30" t="n">
-        <v>2564.909189125856</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S30" t="n">
-        <v>2435.471302619336</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T30" t="n">
-        <v>2242.828302297192</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2029.395255896113</v>
       </c>
       <c r="V30" t="n">
-        <v>1779.608347199865</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W30" t="n">
-        <v>1525.370990471663</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>759.4662498052943</v>
+        <v>774.1010502698007</v>
       </c>
       <c r="C31" t="n">
-        <v>637.9796998254607</v>
+        <v>652.6145002899671</v>
       </c>
       <c r="D31" t="n">
-        <v>535.3126933611983</v>
+        <v>549.9474938257047</v>
       </c>
       <c r="E31" t="n">
-        <v>434.8492327268785</v>
+        <v>449.4840331913849</v>
       </c>
       <c r="F31" t="n">
-        <v>335.4089181770414</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>215.1557144998337</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
-        <v>116.3881606657648</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>158.1401341315256</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>408.6327023328085</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>771.6978860337113</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
-        <v>1162.360316885667</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
-        <v>1550.274078843938</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O31" t="n">
-        <v>1896.109063016758</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2175.221948702824</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2299.337630107745</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R31" t="n">
-        <v>2256.956805813346</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.720554588246</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1938.403572105846</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1696.750338179562</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
-        <v>1489.515482921749</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1247.547945832862</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
-        <v>1067.008027882918</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y31" t="n">
-        <v>893.6650816874608</v>
+        <v>908.299882151967</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1507.448363242302</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1185.935479249964</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1185.935479249964</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>847.596859599793</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>484.0605877582587</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
-        <v>116.4377705513285</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296685</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3262.764786084339</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3104.236671416634</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3104.236671416634</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>2820.623417021137</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
-        <v>2515.304394699096</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X32" t="n">
-        <v>2189.288269386089</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y32" t="n">
-        <v>1846.598570358351</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031478</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>765.151745215813</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.428070438129</v>
+        <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.41198488674</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.05354253334</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2029.395255896113</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>759.4662498052943</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C34" t="n">
-        <v>637.9796998254607</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D34" t="n">
-        <v>535.3126933611983</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E34" t="n">
-        <v>434.8492327268785</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
-        <v>335.4089181770414</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>215.1557144998337</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
-        <v>116.3881606657648</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218342</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>158.1401341315256</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>408.6327023328085</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>771.6978860337113</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
-        <v>1162.360316885667</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1550.274078843938</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1896.109063016758</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2175.221948702824</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2299.337630107746</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2256.956805813347</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.720554588247</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1938.403572105846</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
-        <v>1696.750338179563</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1489.515482921749</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1247.547945832862</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
-        <v>1067.008027882918</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>893.6650816874608</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1707.656676566317</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C35" t="n">
-        <v>1386.143792573978</v>
+        <v>1696.959858232655</v>
       </c>
       <c r="D35" t="n">
         <v>1386.143792573978</v>
@@ -6925,7 +6925,7 @@
         <v>1047.805172923807</v>
       </c>
       <c r="F35" t="n">
-        <v>684.2689010822731</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G35" t="n">
         <v>316.6460838753429</v>
@@ -6937,52 +6937,52 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3262.764786084338</v>
+        <v>3309.942028077284</v>
       </c>
       <c r="T35" t="n">
-        <v>3104.236671416633</v>
+        <v>3309.942028077284</v>
       </c>
       <c r="U35" t="n">
-        <v>2898.155827638543</v>
+        <v>3309.942028077284</v>
       </c>
       <c r="V35" t="n">
-        <v>2614.542573243046</v>
+        <v>3026.328773681787</v>
       </c>
       <c r="W35" t="n">
-        <v>2309.223550921005</v>
+        <v>3026.328773681787</v>
       </c>
       <c r="X35" t="n">
-        <v>2050.346375594055</v>
+        <v>2700.31264836878</v>
       </c>
       <c r="Y35" t="n">
-        <v>1707.656676566317</v>
+        <v>2357.622949341042</v>
       </c>
     </row>
     <row r="36">
@@ -6992,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D36" t="n">
         <v>618.1564155387305</v>
@@ -7004,46 +7004,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T36" t="n">
         <v>2242.828302297192</v>
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>759.4662498052943</v>
+        <v>759.4662498052941</v>
       </c>
       <c r="C37" t="n">
-        <v>637.9796998254607</v>
+        <v>637.9796998254604</v>
       </c>
       <c r="D37" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611981</v>
       </c>
       <c r="E37" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F37" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G37" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H37" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I37" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J37" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315245</v>
       </c>
       <c r="K37" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328075</v>
       </c>
       <c r="L37" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337103</v>
       </c>
       <c r="M37" t="n">
-        <v>1162.360316885667</v>
+        <v>1162.360316885666</v>
       </c>
       <c r="N37" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843937</v>
       </c>
       <c r="O37" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016757</v>
       </c>
       <c r="P37" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q37" t="n">
         <v>2299.337630107745</v>
@@ -7125,22 +7125,22 @@
         <v>2112.720554588246</v>
       </c>
       <c r="T37" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U37" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V37" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W37" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X37" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y37" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874604</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1743.508888527414</v>
+        <v>2012.430767830335</v>
       </c>
       <c r="C38" t="n">
-        <v>1696.959858232656</v>
+        <v>1690.917883837997</v>
       </c>
       <c r="D38" t="n">
-        <v>1386.143792573979</v>
+        <v>1380.10181817932</v>
       </c>
       <c r="E38" t="n">
-        <v>1047.805172923808</v>
+        <v>1041.763198529149</v>
       </c>
       <c r="F38" t="n">
-        <v>684.2689010822733</v>
+        <v>678.2269266876147</v>
       </c>
       <c r="G38" t="n">
-        <v>316.646083875343</v>
+        <v>310.6041094806845</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218339</v>
@@ -7177,7 +7177,7 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7189,37 +7189,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S38" t="n">
-        <v>3262.764786084338</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T38" t="n">
-        <v>3262.764786084338</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U38" t="n">
-        <v>3056.683942306248</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="V38" t="n">
-        <v>3056.683942306248</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="W38" t="n">
-        <v>2751.364919984207</v>
+        <v>3020.286799287128</v>
       </c>
       <c r="X38" t="n">
-        <v>2425.3487946712</v>
+        <v>2694.270673974122</v>
       </c>
       <c r="Y38" t="n">
-        <v>2082.659095643462</v>
+        <v>2351.580974946384</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218339</v>
@@ -7265,40 +7265,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>759.4662498052948</v>
+        <v>759.4662498052941</v>
       </c>
       <c r="C40" t="n">
-        <v>637.9796998254611</v>
+        <v>637.9796998254604</v>
       </c>
       <c r="D40" t="n">
-        <v>535.3126933611986</v>
+        <v>535.3126933611981</v>
       </c>
       <c r="E40" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F40" t="n">
-        <v>335.4089181770416</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G40" t="n">
-        <v>215.1557144998338</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H40" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
-        <v>158.1401341315255</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K40" t="n">
-        <v>408.6327023328084</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L40" t="n">
-        <v>771.6978860337125</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M40" t="n">
-        <v>1162.360316885668</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N40" t="n">
-        <v>1550.274078843939</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O40" t="n">
-        <v>1896.109063016759</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P40" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q40" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R40" t="n">
-        <v>2256.956805813348</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.720554588248</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T40" t="n">
-        <v>1938.403572105847</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U40" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V40" t="n">
-        <v>1489.51548292175</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W40" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X40" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y40" t="n">
-        <v>893.6650816874612</v>
+        <v>893.6650816874604</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2345.167438673965</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C41" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D41" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E41" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F41" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
         <v>108.5090151927147</v>
@@ -7411,10 +7411,10 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7429,34 +7429,34 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T41" t="n">
-        <v>3121.906610713899</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U41" t="n">
-        <v>3121.906610713899</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="V41" t="n">
-        <v>3121.906610713899</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W41" t="n">
-        <v>3121.906610713899</v>
+        <v>2325.505862906801</v>
       </c>
       <c r="X41" t="n">
-        <v>3121.906610713899</v>
+        <v>1952.040104645721</v>
       </c>
       <c r="Y41" t="n">
-        <v>2731.767278738087</v>
+        <v>1678.62132134232</v>
       </c>
     </row>
     <row r="42">
@@ -7493,25 +7493,25 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>650.5934525793617</v>
+        <v>532.8809675997577</v>
       </c>
       <c r="C43" t="n">
-        <v>481.6572696514548</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="D43" t="n">
-        <v>331.5406302391191</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="E43" t="n">
-        <v>331.5406302391191</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F43" t="n">
-        <v>331.5406302391191</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G43" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218339</v>
@@ -7596,25 +7596,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1927.294548088492</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1825.125705693996</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V43" t="n">
-        <v>1570.441217488109</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="W43" t="n">
-        <v>1281.024047451149</v>
+        <v>935.3220115735276</v>
       </c>
       <c r="X43" t="n">
-        <v>1053.034496553131</v>
+        <v>935.3220115735276</v>
       </c>
       <c r="Y43" t="n">
-        <v>832.2419174096015</v>
+        <v>714.5294324299974</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2345.167438673965</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C44" t="n">
-        <v>1976.204921733553</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D44" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218339</v>
@@ -7672,28 +7672,28 @@
         <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520487</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794323</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="V44" t="n">
-        <v>2731.767278738087</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="W44" t="n">
-        <v>2731.767278738087</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X44" t="n">
-        <v>2731.767278738087</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y44" t="n">
-        <v>2731.767278738087</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="45">
@@ -7739,16 +7739,16 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C46" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D46" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E46" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218339</v>
@@ -7830,28 +7830,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672847</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T46" t="n">
-        <v>1457.852289636376</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U46" t="n">
-        <v>1168.749422762019</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V46" t="n">
-        <v>914.0649345561324</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W46" t="n">
-        <v>624.6477645191717</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X46" t="n">
-        <v>624.6477645191717</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y46" t="n">
-        <v>624.6477645191717</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>218.2111409464629</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>233.4357089658653</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>227.7528737187178</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>226.7777408199137</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>227.6097508526263</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>229.1091522321465</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>136.5653954824675</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>136.8385818314783</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>140.1317786452013</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>129.2864630672354</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>140.7160931202018</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>132.4654202195568</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9730561082392</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8142,16 +8142,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>133.8997196622861</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M4" t="n">
-        <v>137.8872852940284</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N4" t="n">
-        <v>126.6717389884799</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O4" t="n">
-        <v>137.5201250048898</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>145.9254860206945</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>167.4534477338089</v>
+        <v>203.6038539184174</v>
       </c>
       <c r="L5" t="n">
-        <v>170.4663022333131</v>
+        <v>215.3140777428999</v>
       </c>
       <c r="M5" t="n">
-        <v>157.6872758230078</v>
+        <v>207.5890673186448</v>
       </c>
       <c r="N5" t="n">
-        <v>155.5784082989237</v>
+        <v>206.2876629516769</v>
       </c>
       <c r="O5" t="n">
-        <v>160.3782401284255</v>
+        <v>208.2615513518522</v>
       </c>
       <c r="P5" t="n">
-        <v>171.7286132850152</v>
+        <v>212.5959115946517</v>
       </c>
       <c r="Q5" t="n">
-        <v>177.6203767601012</v>
+        <v>208.3100158302397</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>105.9201460034513</v>
+        <v>120.2861621969141</v>
       </c>
       <c r="K6" t="n">
-        <v>102.0901328336226</v>
+        <v>126.643942693644</v>
       </c>
       <c r="L6" t="n">
-        <v>90.48233668844486</v>
+        <v>123.4979641735837</v>
       </c>
       <c r="M6" t="n">
-        <v>86.0362270461094</v>
+        <v>124.5639070747221</v>
       </c>
       <c r="N6" t="n">
-        <v>73.75916318365313</v>
+        <v>113.3065562599333</v>
       </c>
       <c r="O6" t="n">
-        <v>89.91946186529555</v>
+        <v>126.0976003197209</v>
       </c>
       <c r="P6" t="n">
-        <v>91.69664532737642</v>
+        <v>120.7327909580799</v>
       </c>
       <c r="Q6" t="n">
-        <v>111.7202097565001</v>
+        <v>131.1301041576208</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8379,19 +8379,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>107.2888413091037</v>
+        <v>126.241516273397</v>
       </c>
       <c r="M7" t="n">
-        <v>109.8298451910613</v>
+        <v>129.8127835797925</v>
       </c>
       <c r="N7" t="n">
-        <v>99.28144209969926</v>
+        <v>118.7892308776099</v>
       </c>
       <c r="O7" t="n">
-        <v>112.2207525800837</v>
+        <v>130.2393529435931</v>
       </c>
       <c r="P7" t="n">
-        <v>115.2787568637937</v>
+        <v>130.6967822841776</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8458,16 +8458,16 @@
         <v>100.0299464227919</v>
       </c>
       <c r="L8" t="n">
-        <v>86.82148686318189</v>
+        <v>86.82148686318186</v>
       </c>
       <c r="M8" t="n">
-        <v>64.61630209323866</v>
+        <v>64.61630209323863</v>
       </c>
       <c r="N8" t="n">
         <v>61.00144891149961</v>
       </c>
       <c r="O8" t="n">
-        <v>71.07189926570237</v>
+        <v>71.0718992657024</v>
       </c>
       <c r="P8" t="n">
         <v>95.50771753390021</v>
@@ -8552,7 +8552,7 @@
         <v>37.54182911310821</v>
       </c>
       <c r="Q9" t="n">
-        <v>75.5191492782957</v>
+        <v>75.51914927829571</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8619,7 +8619,7 @@
         <v>71.94053294496764</v>
       </c>
       <c r="M10" t="n">
-        <v>72.56001021962936</v>
+        <v>72.56001021962938</v>
       </c>
       <c r="N10" t="n">
         <v>62.89780050171086</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9652,16 +9652,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>108.7354935515748</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9892,13 +9892,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>21.13839585591512</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10129,13 +10129,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>21.13839585591512</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10366,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>277.2206841544151</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22561,7 +22561,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.28796821707176</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.88894151217781</v>
+        <v>15.17313444033134</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.35889816588482</v>
+        <v>14.3588981658848</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>98.35495372958499</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>154.5936377623563</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
         <v>247.6326277687279</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>52.22297301962817</v>
+        <v>119.3117957433201</v>
       </c>
       <c r="X14" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,10 +23794,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>302.2658320988205</v>
+        <v>144.0037876120309</v>
       </c>
       <c r="X17" t="n">
-        <v>250.7255049133257</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>94.2018152279629</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V20" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>5.981554650711644</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>166.6513331554034</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>217.2326319672568</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>154.5936377623551</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>198.2062301907743</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>46.70546957301625</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X35" t="n">
-        <v>66.46756048619619</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>272.2142151606048</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.981554650711814</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T38" t="n">
-        <v>156.9428335210277</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V38" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>2.255751353302003</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>115.5533431856867</v>
       </c>
     </row>
     <row r="42">
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>162.7564442626475</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,22 +25836,22 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>185.064684235062</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>144.9899196597008</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>303.9530049144612</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>16.14213605696639</v>
       </c>
       <c r="T46" t="n">
-        <v>33.50229141006292</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>797710.8301985437</v>
+        <v>798516.9231643571</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>773113.324168105</v>
+        <v>791125.8520517575</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>661440.2937416004</v>
+        <v>661440.2937416005</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>661440.2937416006</v>
+        <v>661440.2937416004</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>661440.2937416004</v>
+        <v>661440.2937416006</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>661440.2937416004</v>
+        <v>661440.2937416005</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>661440.2937416007</v>
+        <v>736862.0644396581</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>661440.2937416006</v>
+        <v>736862.0644396581</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>661440.2937416005</v>
+        <v>736862.0644396581</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>661440.2937416004</v>
+        <v>736862.0644396581</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>661440.2937416004</v>
+        <v>661440.2937416006</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>661440.2937416004</v>
+        <v>661440.2937416005</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>591284.0035857992</v>
+        <v>591284.003585799</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>737349.7629178475</v>
+        <v>737348.7048453346</v>
       </c>
       <c r="C2" t="n">
-        <v>737378.3491909861</v>
+        <v>737357.9896096135</v>
       </c>
       <c r="D2" t="n">
-        <v>737416.3214963147</v>
+        <v>737416.3214963146</v>
       </c>
       <c r="E2" t="n">
-        <v>688077.9089008586</v>
+        <v>688077.9089008588</v>
       </c>
       <c r="F2" t="n">
-        <v>688077.9089008586</v>
+        <v>688077.9089008584</v>
       </c>
       <c r="G2" t="n">
-        <v>688077.9089008587</v>
+        <v>688077.9089008588</v>
       </c>
       <c r="H2" t="n">
-        <v>688077.9089008585</v>
+        <v>688077.9089008581</v>
       </c>
       <c r="I2" t="n">
-        <v>688077.9089008585</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="J2" t="n">
+        <v>738937.5928778549</v>
+      </c>
+      <c r="K2" t="n">
+        <v>738937.5928778553</v>
+      </c>
+      <c r="L2" t="n">
+        <v>738937.5928778555</v>
+      </c>
+      <c r="M2" t="n">
+        <v>688077.9089008581</v>
+      </c>
+      <c r="N2" t="n">
         <v>688077.908900859</v>
       </c>
-      <c r="K2" t="n">
-        <v>688077.9089008584</v>
-      </c>
-      <c r="L2" t="n">
-        <v>688077.9089008583</v>
-      </c>
-      <c r="M2" t="n">
-        <v>688077.9089008584</v>
-      </c>
-      <c r="N2" t="n">
-        <v>688077.9089008588</v>
-      </c>
       <c r="O2" t="n">
-        <v>613794.7781476573</v>
+        <v>613794.7781476574</v>
       </c>
       <c r="P2" t="n">
-        <v>613794.7781476572</v>
+        <v>613794.7781476575</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3540.182044145911</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>90384.43573804815</v>
+        <v>29356.68375670024</v>
       </c>
       <c r="D3" t="n">
-        <v>112916.7149150762</v>
+        <v>173459.1820050291</v>
       </c>
       <c r="E3" t="n">
-        <v>972725.1766621992</v>
+        <v>972725.1766621993</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>48646.25967902292</v>
       </c>
       <c r="J3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.10929487408</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.5682920728</v>
+        <v>161600.4331051143</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>445906.8244261798</v>
+        <v>447024.6202723929</v>
       </c>
       <c r="C4" t="n">
-        <v>416275.348434308</v>
+        <v>437279.7803308937</v>
       </c>
       <c r="D4" t="n">
         <v>377175.7121142549</v>
       </c>
       <c r="E4" t="n">
-        <v>59435.44534362313</v>
+        <v>59435.44534362314</v>
       </c>
       <c r="F4" t="n">
-        <v>59435.44534362313</v>
+        <v>59435.44534362314</v>
       </c>
       <c r="G4" t="n">
-        <v>59435.44534362314</v>
+        <v>59435.44534362316</v>
       </c>
       <c r="H4" t="n">
-        <v>59435.44534362313</v>
+        <v>59435.44534362316</v>
       </c>
       <c r="I4" t="n">
-        <v>59435.44534362323</v>
+        <v>86909.5572993634</v>
       </c>
       <c r="J4" t="n">
-        <v>59435.44534362319</v>
+        <v>86909.55729936343</v>
       </c>
       <c r="K4" t="n">
-        <v>59435.44534362319</v>
+        <v>86909.55729936341</v>
       </c>
       <c r="L4" t="n">
-        <v>59435.44534362319</v>
+        <v>86909.5572993634</v>
       </c>
       <c r="M4" t="n">
-        <v>59435.44534362317</v>
+        <v>59435.44534362311</v>
       </c>
       <c r="N4" t="n">
-        <v>59435.44534362313</v>
+        <v>59435.4453436232</v>
       </c>
       <c r="O4" t="n">
+        <v>12210.17896214071</v>
+      </c>
+      <c r="P4" t="n">
         <v>12210.17896214072</v>
-      </c>
-      <c r="P4" t="n">
-        <v>12210.17896214071</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33707.69021107268</v>
+        <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>35871.51227503635</v>
+        <v>34330.40507389184</v>
       </c>
       <c r="D5" t="n">
         <v>38745.80483114667</v>
@@ -26490,16 +26490,16 @@
         <v>78255.49332178175</v>
       </c>
       <c r="I5" t="n">
-        <v>78255.49332178175</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="J5" t="n">
-        <v>78255.49332178176</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>78255.49332178175</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>78255.49332178175</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
         <v>78255.49332178175</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>254195.0662364492</v>
+        <v>256652.3487942606</v>
       </c>
       <c r="C6" t="n">
-        <v>194847.0527435936</v>
+        <v>236347.2425795655</v>
       </c>
       <c r="D6" t="n">
-        <v>208578.089635837</v>
+        <v>147993.3650075079</v>
       </c>
       <c r="E6" t="n">
-        <v>-422338.2064267455</v>
+        <v>-423750.9754261064</v>
       </c>
       <c r="F6" t="n">
-        <v>550386.9702354537</v>
+        <v>548974.2012360925</v>
       </c>
       <c r="G6" t="n">
-        <v>550386.970235454</v>
+        <v>548974.2012360932</v>
       </c>
       <c r="H6" t="n">
-        <v>550386.9702354536</v>
+        <v>548974.2012360923</v>
       </c>
       <c r="I6" t="n">
-        <v>550386.9702354535</v>
+        <v>514003.8342246622</v>
       </c>
       <c r="J6" t="n">
-        <v>512806.86094058</v>
+        <v>525069.9846088113</v>
       </c>
       <c r="K6" t="n">
-        <v>550386.9702354535</v>
+        <v>562650.0939036857</v>
       </c>
       <c r="L6" t="n">
-        <v>550386.9702354533</v>
+        <v>562650.0939036859</v>
       </c>
       <c r="M6" t="n">
-        <v>343198.4019433806</v>
+        <v>387373.768130978</v>
       </c>
       <c r="N6" t="n">
-        <v>550386.9702354539</v>
+        <v>548974.2012360931</v>
       </c>
       <c r="O6" t="n">
-        <v>527278.2586241233</v>
+        <v>523802.0693260623</v>
       </c>
       <c r="P6" t="n">
-        <v>527278.2586241232</v>
+        <v>523802.0693260625</v>
       </c>
     </row>
   </sheetData>
@@ -26694,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>102.9317557356127</v>
+        <v>32.23876485742426</v>
       </c>
       <c r="D3" t="n">
         <v>234.7800381259942</v>
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022925</v>
@@ -26810,28 +26810,28 @@
         <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022925</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022926</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022926</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022923</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26928,10 +26928,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>99.25789284237038</v>
+        <v>32.23876485742426</v>
       </c>
       <c r="D3" t="n">
-        <v>131.8482823903815</v>
+        <v>202.5412732685699</v>
       </c>
       <c r="E3" t="n">
         <v>854.9966624673041</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>182.9350058063219</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022922</v>
+        <v>648.4664495959706</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27165,10 +27165,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27396,13 +27396,13 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>339.3235460419765</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>209.9064962068211</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>10.69576364311372</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,19 +27423,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.395781178313161</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>148.9413660216818</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>208.6835142066282</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0311969618593</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3444713639914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27472,16 +27472,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3356148920818</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.1591249337519</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.12455904281175</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>99.6672001609758</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.5363898835276</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1328769967189</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9408621947163</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27551,19 +27551,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9843543597988</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.1682702466266</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.2512431493756</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>92.89079271141465</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>21.49978743611831</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,22 +27578,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.920177260816417</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>85.60728995481479</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>176.9955073465141</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>223.9011423785076</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9172826158254</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3186679929276</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27633,13 +27633,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>335.2370138004813</v>
+        <v>338.1475046259336</v>
       </c>
       <c r="I5" t="n">
-        <v>194.523019166397</v>
+        <v>205.4793670290357</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.9493903844906573</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>123.8760047703871</v>
+        <v>141.7279387935108</v>
       </c>
       <c r="S5" t="n">
-        <v>199.5906931688573</v>
+        <v>206.0667395191557</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2844575611861</v>
+        <v>222.5285121041781</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3125492275999</v>
+        <v>251.3352846618522</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27709,13 +27709,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.1221167829491</v>
+        <v>137.2741734048381</v>
       </c>
       <c r="H6" t="n">
-        <v>110.097182669234</v>
+        <v>111.5657295174771</v>
       </c>
       <c r="I6" t="n">
-        <v>81.77385660118338</v>
+        <v>87.00913941621903</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>86.41158949044187</v>
+        <v>95.85243834772146</v>
       </c>
       <c r="S6" t="n">
-        <v>167.5707561459103</v>
+        <v>170.3951412059964</v>
       </c>
       <c r="T6" t="n">
-        <v>199.2723297936798</v>
+        <v>199.8852246862936</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9268162664839</v>
+        <v>225.9368199916082</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27788,19 +27788,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.8053647169683</v>
+        <v>167.932843880847</v>
       </c>
       <c r="H7" t="n">
-        <v>160.5768896040063</v>
+        <v>161.7102952610369</v>
       </c>
       <c r="I7" t="n">
-        <v>149.8685364358909</v>
+        <v>153.7021825641704</v>
       </c>
       <c r="J7" t="n">
-        <v>80.23622496329803</v>
+        <v>89.24900184952214</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7044452963561341</v>
+        <v>15.51520633608151</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>70.61934813561686</v>
+        <v>81.29398975822332</v>
       </c>
       <c r="R7" t="n">
-        <v>168.9474821334262</v>
+        <v>174.6794089020085</v>
       </c>
       <c r="S7" t="n">
-        <v>220.7818410575433</v>
+        <v>223.0034552135021</v>
       </c>
       <c r="T7" t="n">
-        <v>227.1525086873678</v>
+        <v>227.6971923875768</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3089049215005</v>
+        <v>286.3158583304393</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859281</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859306</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859284</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C23" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D23" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E23" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F23" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G23" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H23" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T23" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U23" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V23" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W23" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X23" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859306</v>
       </c>
       <c r="R25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="26">
@@ -29295,7 +29295,7 @@
         <v>46.97513661859259</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="32">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859213</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859145</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="38">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859392</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859168</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="41">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01476929806328569</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1512560737906247</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5693933635848223</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.253525711498795</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.878710098517679</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.330706004121959</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.593359508554916</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.635322776677227</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.48846056906043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.123843523123063</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.594918036231644</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9277519194678708</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3365553796171231</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.06465260227203316</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.001181543845062855</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007902271128860838</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07631930274452442</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2720738086033228</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1.276043491891533</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.715797948395859</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.002255276817064</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.05524901609789</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.880151324242605</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.508987194773435</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.008717977782306</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.4906339916673424</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1467812203102001</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03185169810273293</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.000519886258477687</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.006624998659945165</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05890226081296706</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1992317778827147</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4683874052581232</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7697043897645381</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9849566189522114</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.038498653576677</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1.013805476753246</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.936413446952977</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8012634742900949</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5547532968795902</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2978840306553526</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1154556584646807</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02830681245612934</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0003613635632697367</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4137960029572367</v>
+        <v>0.1296030748037155</v>
       </c>
       <c r="H5" t="n">
-        <v>4.237788315285801</v>
+        <v>1.327297489833552</v>
       </c>
       <c r="I5" t="n">
-        <v>15.95287040400888</v>
+        <v>4.996522541370247</v>
       </c>
       <c r="J5" t="n">
-        <v>35.1204185059918</v>
+        <v>10.99989897012186</v>
       </c>
       <c r="K5" t="n">
-        <v>52.63640331117163</v>
+        <v>16.48599712656314</v>
       </c>
       <c r="L5" t="n">
-        <v>65.30011273667418</v>
+        <v>20.45233722708735</v>
       </c>
       <c r="M5" t="n">
-        <v>72.65895740426494</v>
+        <v>22.75716590862793</v>
       </c>
       <c r="N5" t="n">
-        <v>73.83465529766718</v>
+        <v>23.12540064491399</v>
       </c>
       <c r="O5" t="n">
-        <v>69.71997129326117</v>
+        <v>21.83666006983454</v>
       </c>
       <c r="P5" t="n">
-        <v>59.50438247025437</v>
+        <v>18.63708416061781</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.68531311434832</v>
+        <v>13.99567404420974</v>
       </c>
       <c r="R5" t="n">
-        <v>25.99311317076254</v>
+        <v>8.141179147638901</v>
       </c>
       <c r="S5" t="n">
-        <v>9.42937641738804</v>
+        <v>2.95333006708967</v>
       </c>
       <c r="T5" t="n">
-        <v>1.811392002945304</v>
+        <v>0.5673374599532649</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03310368023657893</v>
+        <v>0.01036824598429724</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2214003802615066</v>
+        <v>0.06934375837257294</v>
       </c>
       <c r="H6" t="n">
-        <v>2.138261567262445</v>
+        <v>0.6697147190193229</v>
       </c>
       <c r="I6" t="n">
-        <v>7.622776250231696</v>
+        <v>2.387493435196042</v>
       </c>
       <c r="J6" t="n">
-        <v>20.91748066321541</v>
+        <v>6.551464469752604</v>
       </c>
       <c r="K6" t="n">
-        <v>35.75130614073635</v>
+        <v>11.19749628071499</v>
       </c>
       <c r="L6" t="n">
-        <v>48.07204309142931</v>
+        <v>15.05641560629045</v>
       </c>
       <c r="M6" t="n">
-        <v>56.09780687590892</v>
+        <v>17.57012684729622</v>
       </c>
       <c r="N6" t="n">
-        <v>57.58254889968017</v>
+        <v>18.03515582340001</v>
       </c>
       <c r="O6" t="n">
-        <v>52.67678257914888</v>
+        <v>16.49864412472353</v>
       </c>
       <c r="P6" t="n">
-        <v>42.27776208695383</v>
+        <v>13.24161645625035</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.26156432952144</v>
+        <v>8.851669928400714</v>
       </c>
       <c r="R6" t="n">
-        <v>13.74624466220126</v>
+        <v>4.305395804921679</v>
       </c>
       <c r="S6" t="n">
-        <v>4.112414957927542</v>
+        <v>1.288029897841431</v>
       </c>
       <c r="T6" t="n">
-        <v>0.8923989011417739</v>
+        <v>0.2795040085280461</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0145658144908886</v>
+        <v>0.004562089366616643</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1856146414904491</v>
+        <v>0.05813547761174866</v>
       </c>
       <c r="H7" t="n">
-        <v>1.650282903433267</v>
+        <v>0.5168772464026384</v>
       </c>
       <c r="I7" t="n">
-        <v>5.581938491367326</v>
+        <v>1.74829236308786</v>
       </c>
       <c r="J7" t="n">
-        <v>13.12295515337475</v>
+        <v>4.11017826715063</v>
       </c>
       <c r="K7" t="n">
-        <v>21.56504652952672</v>
+        <v>6.754285489801342</v>
       </c>
       <c r="L7" t="n">
-        <v>27.59583497213459</v>
+        <v>8.643160007841251</v>
       </c>
       <c r="M7" t="n">
-        <v>29.09593875654376</v>
+        <v>9.113000367812562</v>
       </c>
       <c r="N7" t="n">
-        <v>28.40410236553393</v>
+        <v>8.896313587623325</v>
       </c>
       <c r="O7" t="n">
-        <v>26.23578587175912</v>
+        <v>8.217185508249713</v>
       </c>
       <c r="P7" t="n">
-        <v>22.44924718535394</v>
+        <v>7.031221764970034</v>
       </c>
       <c r="Q7" t="n">
-        <v>15.54269511607752</v>
+        <v>4.868053493471063</v>
       </c>
       <c r="R7" t="n">
-        <v>8.345909243743282</v>
+        <v>2.613982475160989</v>
       </c>
       <c r="S7" t="n">
-        <v>3.234756979429007</v>
+        <v>1.013142823470201</v>
       </c>
       <c r="T7" t="n">
-        <v>0.7930807409137369</v>
+        <v>0.2483970407047442</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01012443499038814</v>
+        <v>0.00317102605154993</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31530,7 +31530,7 @@
         <v>120.0599046221887</v>
       </c>
       <c r="L8" t="n">
-        <v>148.9449281068053</v>
+        <v>148.9449281068054</v>
       </c>
       <c r="M8" t="n">
         <v>165.7299311340341</v>
@@ -31539,7 +31539,7 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O8" t="n">
-        <v>159.0263121559844</v>
+        <v>159.0263121559843</v>
       </c>
       <c r="P8" t="n">
         <v>135.7252782213693</v>
@@ -31554,7 +31554,7 @@
         <v>21.50773917103957</v>
       </c>
       <c r="T8" t="n">
-        <v>4.131656751342872</v>
+        <v>4.131656751342871</v>
       </c>
       <c r="U8" t="n">
         <v>0.07550714794001816</v>
@@ -31624,7 +31624,7 @@
         <v>96.43257830122204</v>
       </c>
       <c r="Q9" t="n">
-        <v>64.46262480772582</v>
+        <v>64.4626248077258</v>
       </c>
       <c r="R9" t="n">
         <v>31.35420961992052</v>
@@ -31673,7 +31673,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.423373839243596</v>
       </c>
       <c r="H10" t="n">
         <v>3.764178316183975</v>
@@ -31691,7 +31691,7 @@
         <v>62.94414333627064</v>
       </c>
       <c r="M10" t="n">
-        <v>66.36577372797569</v>
+        <v>66.36577372797568</v>
       </c>
       <c r="N10" t="n">
         <v>64.78774396352233</v>
@@ -31703,13 +31703,13 @@
         <v>51.20514142997091</v>
       </c>
       <c r="Q10" t="n">
-        <v>35.45178575702512</v>
+        <v>35.45178575702513</v>
       </c>
       <c r="R10" t="n">
         <v>19.03642735362569</v>
       </c>
       <c r="S10" t="n">
-        <v>7.378251362090666</v>
+        <v>7.378251362090667</v>
       </c>
       <c r="T10" t="n">
         <v>1.808960949495364</v>
@@ -32560,10 +32560,10 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
         <v>557.7086478970249</v>
@@ -32800,7 +32800,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
         <v>557.7086478970249</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33982,7 +33982,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837924</v>
@@ -34149,7 +34149,7 @@
         <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q41" t="n">
         <v>473.0999946781689</v>
@@ -34213,7 +34213,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138795</v>
@@ -34456,7 +34456,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837924</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
@@ -35579,7 +35579,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O13" t="n">
         <v>349.3282668412323</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165901</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K19" t="n">
         <v>253.0227961629121</v>
@@ -36062,7 +36062,7 @@
         <v>281.9322077637029</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564867</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302271</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129113</v>
@@ -36208,10 +36208,10 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525805</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K22" t="n">
         <v>253.0227961629121</v>
@@ -36287,7 +36287,7 @@
         <v>366.7325087887906</v>
       </c>
       <c r="M22" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120766</v>
       </c>
       <c r="N22" t="n">
         <v>391.8320827861326</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554004</v>
@@ -36372,16 +36372,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.05300088822</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>359.5297983552942</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
         <v>415.1124034525805</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K25" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M25" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N25" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O25" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P25" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564867</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>80.75159439813984</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36767,13 +36767,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554004</v>
@@ -36849,13 +36849,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>80.75159439813984</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -36998,7 +36998,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
         <v>391.8320827861326</v>
@@ -37007,7 +37007,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554004</v>
@@ -37086,13 +37086,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>675.9826703737867</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222526</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37235,7 +37235,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37244,10 +37244,10 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564858</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222342</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165767</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L37" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37630,7 +37630,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004591</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165871</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.732508788792</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
         <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564853</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554004</v>
@@ -37797,7 +37797,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037194</v>
@@ -37861,7 +37861,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340053</v>
@@ -38034,13 +38034,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q44" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,7 +38104,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004591</v>
